--- a/data/outputs/management/86.xlsx
+++ b/data/outputs/management/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ108"/>
+  <dimension ref="A1:BR108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -899,6 +904,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4884904</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1112,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4550364</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1301,6 +1316,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1508,6 +1524,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4878513</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1711,6 +1732,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4878514</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1906,6 +1932,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2105,6 +2132,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2304,6 +2332,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2390,7 +2419,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Rizzi, Francesco/0000-0001-6226-6320; </t>
+          <t>Rizzi, Francesco/0000-0001-6226-6320;</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr"/>
@@ -2511,6 +2540,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>20511174</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2718,6 +2752,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4656225</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2925,6 +2964,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4878659</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3128,6 +3172,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3335,6 +3380,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3546,6 +3592,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3745,6 +3792,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3948,6 +3996,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4143,6 +4192,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4785357</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4358,6 +4412,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4483534</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4577,6 +4636,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4503483</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4792,6 +4856,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4476415</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4991,6 +5060,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>6254636</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5202,6 +5276,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4711876</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5397,6 +5476,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5576,6 +5656,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5763,6 +5844,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5970,6 +6052,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>4412260</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6185,6 +6272,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6400,6 +6488,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4511583</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6599,6 +6692,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4865207</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6794,6 +6892,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4611658</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7005,6 +7108,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4258706</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7204,6 +7312,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>4275710</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7411,6 +7524,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4094331</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7618,6 +7736,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4382614</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7829,6 +7952,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>3055907</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8036,6 +8164,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4162032</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8247,6 +8380,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>34743995</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8450,6 +8588,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>3864570</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8657,6 +8800,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>4300597</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8860,6 +9008,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4175498</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9075,6 +9228,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>4122291</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9274,6 +9432,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9489,6 +9648,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9676,6 +9836,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>4511669</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9879,6 +10044,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>2918587</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10078,6 +10248,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>2824697</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10289,6 +10464,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>4457995</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10496,6 +10676,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>2997028</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10691,6 +10876,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10906,6 +11092,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11109,6 +11296,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4392926</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11316,6 +11508,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>4402596</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11515,6 +11712,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>4458019</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11714,6 +11916,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>4457972</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11925,6 +12132,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>3085244</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12136,6 +12348,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>3062322</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12363,6 +12580,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>3735065</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12566,6 +12788,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12765,6 +12988,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12980,6 +13204,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>4159468</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13191,6 +13420,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13406,6 +13636,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13605,6 +13836,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13816,6 +14048,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>3909382</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14031,6 +14268,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14234,6 +14472,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>3916825</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14437,6 +14680,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>3536866</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14640,6 +14888,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14851,6 +15100,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15054,6 +15304,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15253,6 +15504,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>2976337</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15464,6 +15720,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>2806210</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15683,6 +15944,11 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>3804105</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15886,6 +16152,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16081,6 +16348,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16280,6 +16548,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>3759464</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16487,6 +16760,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>9051955</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16694,6 +16972,11 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>3913778</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16905,6 +17188,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>2857146</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17112,6 +17400,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17311,6 +17600,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17518,6 +17808,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17721,6 +18012,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>3000502</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17932,6 +18228,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18127,6 +18424,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18330,6 +18628,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>3091095</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18537,6 +18840,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>12097637</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18756,6 +19064,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18967,6 +19276,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>3097276</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19170,6 +19484,11 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>2931040</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19369,6 +19688,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19584,6 +19904,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19791,6 +20112,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19998,6 +20320,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>2646359</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20213,6 +20540,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20424,6 +20752,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20627,6 +20956,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>4490057</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20850,6 +21184,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>2890930</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21057,6 +21396,11 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>2874270</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21268,6 +21612,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21487,6 +21832,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21698,6 +22044,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21901,6 +22248,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22120,6 +22468,11 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>2230385</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22343,6 +22696,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22554,6 +22908,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>52030592</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22765,6 +23124,11 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>2627888</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
